--- a/Stundenaufstellung KW 31-34.xlsx
+++ b/Stundenaufstellung KW 31-34.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_TG-C23\02_Python\AutoStundenBerechnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB655E9B-79D0-46A4-B3E8-90314C2EAC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34575A6B-FDAF-46C2-9840-3EDFC9AB818F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenaufstellung" sheetId="1" r:id="rId1"/>
@@ -1354,7 +1354,7 @@
   <dimension ref="A2:J43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1567,8 +1567,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="32">
-        <f>SUM(I6:I10)</f>
-        <v>30.25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1758,8 +1757,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="32">
-        <f>SUM(I16:I20)</f>
-        <v>26.75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1949,8 +1947,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="32">
-        <f>SUM(I26:I30)</f>
-        <v>25.9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2152,8 +2149,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="32">
-        <f>SUM(I36:I40)</f>
-        <v>20.5</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3012,9 +3008,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3229,19 +3228,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79857D11-D341-44F7-A912-811FFB1C9476}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{457CA776-6502-4BEA-ACF6-494FD9BAFCD9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3266,9 +3261,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{457CA776-6502-4BEA-ACF6-494FD9BAFCD9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79857D11-D341-44F7-A912-811FFB1C9476}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>